--- a/medicine/Psychotrope/Au_cabaret/Au_cabaret.xlsx
+++ b/medicine/Psychotrope/Au_cabaret/Au_cabaret.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Au cabaret est un film français réalisé par Alice Guy en 1899.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À la terrasse d'un cabaret, une partie de cartes bien arrosée se termine par une dispute entre deux joueurs suivie d'un pugilat.
 </t>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Au cabaret
 Réalisation : Alice Guy
@@ -580,7 +596,9 @@
           <t>Analyse</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La partie de cartes peut être considérée comme un classique des débuts du cinéma : on retiendra ainsi un des premiers films de Georges Méliès, Une partie de cartes tourné en 1896 et surtout la Partie de cartes de Louis Lumière de 1895.
 Alice Guy apporte ici une dimension comique — voire pédagogique : les dangers de l'alcoolisme — à cet « exercice de style ».
@@ -612,7 +630,9 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le film est tourné en extérieur devant un décor sommaire qui évoque plutôt une buvette qu'un établissement permanent. L'enseigne de l'estaminet est un panneau manuscrit indiquant « Vins liqueurs ».
 </t>
